--- a/ICAP/db/Formularium.xlsx
+++ b/ICAP/db/Formularium.xlsx
@@ -12,9 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="11075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="dbFormularium">table!$A$1:$Q$561</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="hal - Personal View" guid="{8EE0B44C-CE29-471F-9041-38103C85AE4D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-13" yWindow="-13" windowWidth="2906" windowHeight="1754" activeSheetId="1" showFormulaBar="0"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3829,6 +3835,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4EE98B60-CD8B-4C89-9005-744733BDE95A}">
+  <header guid="{4EE98B60-CD8B-4C89-9005-744733BDE95A}" dateTime="2015-07-04T10:29:52" maxSheetId="2" userName="hal" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4097,8 +4121,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N561" sqref="N561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -32865,6 +32889,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{8EE0B44C-CE29-471F-9041-38103C85AE4D}" topLeftCell="A14">
+      <selection activeCell="N561" sqref="N561"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>